--- a/CAMPANA1.xlsx
+++ b/CAMPANA1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatia\Downloads\Biofisicas-LASA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Documents\GitHub\FinalDise-o\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$401</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -153,6 +153,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -276,9 +277,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,25 +298,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -330,17 +316,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -628,7 +629,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,10 +638,10 @@
     <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
     <col min="3" max="5" width="11.42578125" style="3"/>
     <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="28"/>
-    <col min="8" max="8" width="11.42578125" style="13"/>
-    <col min="9" max="12" width="13.140625" style="13" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="13"/>
+    <col min="7" max="7" width="11.42578125" style="23"/>
+    <col min="8" max="8" width="11.42578125" style="12"/>
+    <col min="9" max="12" width="13.140625" style="12" customWidth="1"/>
+    <col min="13" max="19" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -659,22 +660,22 @@
       <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -692,7 +693,7 @@
       <c r="E2" s="4">
         <v>20.5</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>5</v>
       </c>
     </row>
@@ -712,7 +713,7 @@
       <c r="E3" s="4">
         <v>21.5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>5</v>
       </c>
     </row>
@@ -732,7 +733,7 @@
       <c r="E4" s="4">
         <v>28</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>6</v>
       </c>
     </row>
@@ -752,7 +753,7 @@
       <c r="E5" s="4">
         <v>32</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>7</v>
       </c>
     </row>
@@ -772,7 +773,7 @@
       <c r="E6" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>4</v>
       </c>
     </row>
@@ -792,7 +793,7 @@
       <c r="E7" s="4">
         <v>37.5</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>7</v>
       </c>
     </row>
@@ -812,7 +813,7 @@
       <c r="E8" s="4">
         <v>29.5</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>7</v>
       </c>
     </row>
@@ -832,7 +833,7 @@
       <c r="E9" s="4">
         <v>19.8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>4</v>
       </c>
     </row>
@@ -852,7 +853,7 @@
       <c r="E10" s="4">
         <v>31</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>5</v>
       </c>
     </row>
@@ -872,7 +873,7 @@
       <c r="E11" s="4">
         <v>23.5</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>5</v>
       </c>
     </row>
@@ -892,7 +893,7 @@
       <c r="E12" s="4">
         <v>29</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>6</v>
       </c>
     </row>
@@ -912,7 +913,7 @@
       <c r="E13" s="4">
         <v>35.5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>5</v>
       </c>
     </row>
@@ -932,7 +933,7 @@
       <c r="E14" s="4">
         <v>30.5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>6</v>
       </c>
     </row>
@@ -952,7 +953,7 @@
       <c r="E15" s="4">
         <v>29.5</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>5</v>
       </c>
     </row>
@@ -972,7 +973,7 @@
       <c r="E16" s="4">
         <v>28</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>7</v>
       </c>
     </row>
@@ -992,7 +993,7 @@
       <c r="E17" s="4">
         <v>33</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1012,7 +1013,7 @@
       <c r="E18" s="4">
         <v>26</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1032,7 +1033,7 @@
       <c r="E19" s="4">
         <v>26</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1052,7 +1053,7 @@
       <c r="E20" s="4">
         <v>22</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1072,7 +1073,7 @@
       <c r="E21" s="4">
         <v>24</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1092,7 +1093,7 @@
       <c r="E22" s="4">
         <v>23.3</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1112,7 +1113,7 @@
       <c r="E23" s="4">
         <v>37</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1132,7 +1133,7 @@
       <c r="E24" s="4">
         <v>13.5</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1152,7 +1153,7 @@
       <c r="E25" s="4">
         <v>15.5</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1172,7 +1173,7 @@
       <c r="E26" s="4">
         <v>33</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1192,7 +1193,7 @@
       <c r="E27" s="4">
         <v>25</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1212,7 +1213,7 @@
       <c r="E28" s="4">
         <v>18</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1232,7 +1233,7 @@
       <c r="E29" s="4">
         <v>18.5</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1252,7 +1253,7 @@
       <c r="E30" s="4">
         <v>27</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1272,7 +1273,7 @@
       <c r="E31" s="4">
         <v>22.5</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1292,7 +1293,7 @@
       <c r="E32" s="4">
         <v>20.5</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1312,7 +1313,7 @@
       <c r="E33" s="4">
         <v>28.5</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1332,7 +1333,7 @@
       <c r="E34" s="4">
         <v>33</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1352,7 +1353,7 @@
       <c r="E35" s="4">
         <v>25.5</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>9</v>
       </c>
     </row>
@@ -1372,7 +1373,7 @@
       <c r="E36" s="4">
         <v>29.5</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1392,7 +1393,7 @@
       <c r="E37" s="4">
         <v>23</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1412,7 +1413,7 @@
       <c r="E38" s="4">
         <v>21</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1432,7 +1433,7 @@
       <c r="E39" s="4">
         <v>37</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1452,7 +1453,7 @@
       <c r="E40" s="4">
         <v>13</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1472,7 +1473,7 @@
       <c r="E41" s="4">
         <v>31</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1481,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>21</v>
@@ -1492,7 +1493,7 @@
       <c r="E42" s="4">
         <v>35.5</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1512,7 +1513,7 @@
       <c r="E43" s="4">
         <v>21</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1532,7 +1533,7 @@
       <c r="E44" s="4">
         <v>30</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1552,7 +1553,7 @@
       <c r="E45" s="4">
         <v>28</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1572,7 +1573,7 @@
       <c r="E46" s="4">
         <v>33.5</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1592,7 +1593,7 @@
       <c r="E47" s="4">
         <v>23.3</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1612,7 +1613,7 @@
       <c r="E48" s="4">
         <v>27.5</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1632,7 +1633,7 @@
       <c r="E49" s="4">
         <v>41</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1652,7 +1653,7 @@
       <c r="E50" s="4">
         <v>28.5</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1672,7 +1673,7 @@
       <c r="E51" s="4">
         <v>20</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1692,7 +1693,7 @@
       <c r="E52" s="4">
         <v>28.5</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1712,7 +1713,7 @@
       <c r="E53" s="4">
         <v>32</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1732,7 +1733,7 @@
       <c r="E54" s="4">
         <v>34.5</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1752,7 +1753,7 @@
       <c r="E55" s="4">
         <v>24</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1772,7 +1773,7 @@
       <c r="E56" s="4">
         <v>40.5</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1792,7 +1793,7 @@
       <c r="E57" s="4">
         <v>33.5</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1812,7 +1813,7 @@
       <c r="E58" s="4">
         <v>25</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1832,7 +1833,7 @@
       <c r="E59" s="4">
         <v>34.5</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>8</v>
       </c>
     </row>
@@ -1852,7 +1853,7 @@
       <c r="E60" s="4">
         <v>17.5</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1872,7 +1873,7 @@
       <c r="E61" s="4">
         <v>30</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>7</v>
       </c>
     </row>
@@ -1892,7 +1893,7 @@
       <c r="E62" s="4">
         <v>20</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1912,7 +1913,7 @@
       <c r="E63" s="4">
         <v>13</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1932,7 +1933,7 @@
       <c r="E64" s="4">
         <v>22</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1952,7 +1953,7 @@
       <c r="E65" s="4">
         <v>17.5</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1972,7 +1973,7 @@
       <c r="E66" s="4">
         <v>31</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1992,7 +1993,7 @@
       <c r="E67" s="4">
         <v>14</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2012,7 +2013,7 @@
       <c r="E68" s="4">
         <v>18</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2032,7 +2033,7 @@
       <c r="E69" s="4">
         <v>31</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2052,7 +2053,7 @@
       <c r="E70" s="4">
         <v>9</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2072,7 +2073,7 @@
       <c r="E71" s="4">
         <v>20</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2092,7 +2093,7 @@
       <c r="E72" s="4">
         <v>24</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2112,7 +2113,7 @@
       <c r="E73" s="4">
         <v>26</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2132,7 +2133,7 @@
       <c r="E74" s="4">
         <v>23</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2152,7 +2153,7 @@
       <c r="E75" s="4">
         <v>34</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2172,7 +2173,7 @@
       <c r="E76" s="4">
         <v>17.5</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2192,7 +2193,7 @@
       <c r="E77" s="4">
         <v>9</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2212,7 +2213,7 @@
       <c r="E78" s="4">
         <v>24</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2232,7 +2233,7 @@
       <c r="E79" s="4">
         <v>20</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2252,7 +2253,7 @@
       <c r="E80" s="4">
         <v>34.5</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2272,7 +2273,7 @@
       <c r="E81" s="4">
         <v>22</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2292,7 +2293,7 @@
       <c r="E82" s="4">
         <v>29</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2312,7 +2313,7 @@
       <c r="E83" s="4">
         <v>23</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2332,7 +2333,7 @@
       <c r="E84" s="4">
         <v>29</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2352,7 +2353,7 @@
       <c r="E85" s="4">
         <v>33</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2372,7 +2373,7 @@
       <c r="E86" s="4">
         <v>28</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2392,7 +2393,7 @@
       <c r="E87" s="4">
         <v>34</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2412,7 +2413,7 @@
       <c r="E88" s="4">
         <v>23.5</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2432,7 +2433,7 @@
       <c r="E89" s="4">
         <v>30</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2452,7 +2453,7 @@
       <c r="E90" s="4">
         <v>20</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="10">
         <v>4</v>
       </c>
     </row>
@@ -2472,7 +2473,7 @@
       <c r="E91" s="4">
         <v>10</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2492,7 +2493,7 @@
       <c r="E92" s="4">
         <v>35</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2512,7 +2513,7 @@
       <c r="E93" s="4">
         <v>22</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2532,7 +2533,7 @@
       <c r="E94" s="4">
         <v>32.5</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2552,7 +2553,7 @@
       <c r="E95" s="4">
         <v>13</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2572,7 +2573,7 @@
       <c r="E96" s="4">
         <v>26</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2592,7 +2593,7 @@
       <c r="E97" s="4">
         <v>23.5</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2612,7 +2613,7 @@
       <c r="E98" s="4">
         <v>35</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2632,7 +2633,7 @@
       <c r="E99" s="4">
         <v>27</v>
       </c>
-      <c r="F99" s="11">
+      <c r="F99" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2652,7 +2653,7 @@
       <c r="E100" s="4">
         <v>30</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2672,7 +2673,7 @@
       <c r="E101" s="4">
         <v>18.5</v>
       </c>
-      <c r="F101" s="11">
+      <c r="F101" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2692,7 +2693,7 @@
       <c r="E102" s="4">
         <v>25</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2712,7 +2713,7 @@
       <c r="E103" s="4">
         <v>38</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2732,7 +2733,7 @@
       <c r="E104" s="4">
         <v>37</v>
       </c>
-      <c r="F104" s="11">
+      <c r="F104" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2752,7 +2753,7 @@
       <c r="E105" s="4">
         <v>27.5</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2772,7 +2773,7 @@
       <c r="E106" s="4">
         <v>31.5</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2792,7 +2793,7 @@
       <c r="E107" s="4">
         <v>20.5</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2812,7 +2813,7 @@
       <c r="E108" s="4">
         <v>33</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2832,7 +2833,7 @@
       <c r="E109" s="4">
         <v>20.5</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2852,7 +2853,7 @@
       <c r="E110" s="4">
         <v>31.5</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2872,7 +2873,7 @@
       <c r="E111" s="4">
         <v>26.5</v>
       </c>
-      <c r="F111" s="11">
+      <c r="F111" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2892,7 +2893,7 @@
       <c r="E112" s="4">
         <v>22</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2912,7 +2913,7 @@
       <c r="E113" s="4">
         <v>29.5</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="10">
         <v>7</v>
       </c>
     </row>
@@ -2932,7 +2933,7 @@
       <c r="E114" s="4">
         <v>32</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2952,7 +2953,7 @@
       <c r="E115" s="4">
         <v>24.5</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="10">
         <v>3</v>
       </c>
     </row>
@@ -2972,7 +2973,7 @@
       <c r="E116" s="4">
         <v>26</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="10">
         <v>6</v>
       </c>
     </row>
@@ -2992,7 +2993,7 @@
       <c r="E117" s="4">
         <v>25.5</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3012,7 +3013,7 @@
       <c r="E118" s="4">
         <v>22</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3032,7 +3033,7 @@
       <c r="E119" s="4">
         <v>30.5</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3052,7 +3053,7 @@
       <c r="E120" s="4">
         <v>26.5</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F120" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3072,7 +3073,7 @@
       <c r="E121" s="4">
         <v>13.5</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3092,7 +3093,7 @@
       <c r="E122" s="4">
         <v>20.5</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3112,7 +3113,7 @@
       <c r="E123" s="4">
         <v>22</v>
       </c>
-      <c r="F123" s="11">
+      <c r="F123" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3132,7 +3133,7 @@
       <c r="E124" s="4">
         <v>23.5</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3152,7 +3153,7 @@
       <c r="E125" s="4">
         <v>19</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F125" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3172,7 +3173,7 @@
       <c r="E126" s="4">
         <v>10.5</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F126" s="10">
         <v>4</v>
       </c>
     </row>
@@ -3192,7 +3193,7 @@
       <c r="E127" s="4">
         <v>33.5</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F127" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3212,7 +3213,7 @@
       <c r="E128" s="4">
         <v>27</v>
       </c>
-      <c r="F128" s="11">
+      <c r="F128" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3232,7 +3233,7 @@
       <c r="E129" s="4">
         <v>18</v>
       </c>
-      <c r="F129" s="11">
+      <c r="F129" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3252,7 +3253,7 @@
       <c r="E130" s="4">
         <v>31</v>
       </c>
-      <c r="F130" s="11">
+      <c r="F130" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3272,7 +3273,7 @@
       <c r="E131" s="4">
         <v>15</v>
       </c>
-      <c r="F131" s="11">
+      <c r="F131" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3292,7 +3293,7 @@
       <c r="E132" s="4">
         <v>19</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F132" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3312,7 +3313,7 @@
       <c r="E133" s="4">
         <v>21</v>
       </c>
-      <c r="F133" s="11">
+      <c r="F133" s="10">
         <v>4</v>
       </c>
     </row>
@@ -3332,7 +3333,7 @@
       <c r="E134" s="4">
         <v>34</v>
       </c>
-      <c r="F134" s="11">
+      <c r="F134" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3352,7 +3353,7 @@
       <c r="E135" s="4">
         <v>20.5</v>
       </c>
-      <c r="F135" s="11">
+      <c r="F135" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3372,7 +3373,7 @@
       <c r="E136" s="4">
         <v>16</v>
       </c>
-      <c r="F136" s="11">
+      <c r="F136" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3392,7 +3393,7 @@
       <c r="E137" s="4">
         <v>23.5</v>
       </c>
-      <c r="F137" s="11">
+      <c r="F137" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3412,7 +3413,7 @@
       <c r="E138" s="4">
         <v>21</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F138" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3432,7 +3433,7 @@
       <c r="E139" s="4">
         <v>18.5</v>
       </c>
-      <c r="F139" s="11">
+      <c r="F139" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3452,7 +3453,7 @@
       <c r="E140" s="4">
         <v>31.5</v>
       </c>
-      <c r="F140" s="11">
+      <c r="F140" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3472,7 +3473,7 @@
       <c r="E141" s="4">
         <v>21</v>
       </c>
-      <c r="F141" s="11">
+      <c r="F141" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3492,7 +3493,7 @@
       <c r="E142" s="4">
         <v>27.5</v>
       </c>
-      <c r="F142" s="11">
+      <c r="F142" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3512,7 +3513,7 @@
       <c r="E143" s="4">
         <v>22</v>
       </c>
-      <c r="F143" s="11">
+      <c r="F143" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3532,7 +3533,7 @@
       <c r="E144" s="4">
         <v>27.5</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F144" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3552,7 +3553,7 @@
       <c r="E145" s="4">
         <v>36</v>
       </c>
-      <c r="F145" s="11">
+      <c r="F145" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3572,7 +3573,7 @@
       <c r="E146" s="4">
         <v>28</v>
       </c>
-      <c r="F146" s="11">
+      <c r="F146" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3592,7 +3593,7 @@
       <c r="E147" s="4">
         <v>20</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F147" s="10">
         <v>3</v>
       </c>
     </row>
@@ -3612,7 +3613,7 @@
       <c r="E148" s="4">
         <v>26.5</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3632,7 +3633,7 @@
       <c r="E149" s="4">
         <v>16</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F149" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3652,7 +3653,7 @@
       <c r="E150" s="4">
         <v>19.5</v>
       </c>
-      <c r="F150" s="11">
+      <c r="F150" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3672,7 +3673,7 @@
       <c r="E151" s="4">
         <v>26.5</v>
       </c>
-      <c r="F151" s="11">
+      <c r="F151" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3692,7 +3693,7 @@
       <c r="E152" s="4">
         <v>10.5</v>
       </c>
-      <c r="F152" s="11">
+      <c r="F152" s="10">
         <v>4</v>
       </c>
     </row>
@@ -3712,7 +3713,7 @@
       <c r="E153" s="4">
         <v>12.3</v>
       </c>
-      <c r="F153" s="11">
+      <c r="F153" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3732,7 +3733,7 @@
       <c r="E154" s="4">
         <v>18</v>
       </c>
-      <c r="F154" s="11">
+      <c r="F154" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3752,7 +3753,7 @@
       <c r="E155" s="4">
         <v>26</v>
       </c>
-      <c r="F155" s="11">
+      <c r="F155" s="10">
         <v>3</v>
       </c>
     </row>
@@ -3772,7 +3773,7 @@
       <c r="E156" s="4">
         <v>30.5</v>
       </c>
-      <c r="F156" s="11">
+      <c r="F156" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3792,7 +3793,7 @@
       <c r="E157" s="4">
         <v>13</v>
       </c>
-      <c r="F157" s="11">
+      <c r="F157" s="10">
         <v>3</v>
       </c>
     </row>
@@ -3812,7 +3813,7 @@
       <c r="E158" s="4">
         <v>36</v>
       </c>
-      <c r="F158" s="11">
+      <c r="F158" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3832,7 +3833,7 @@
       <c r="E159" s="4">
         <v>10.5</v>
       </c>
-      <c r="F159" s="11">
+      <c r="F159" s="10">
         <v>3</v>
       </c>
     </row>
@@ -3852,7 +3853,7 @@
       <c r="E160" s="4">
         <v>30</v>
       </c>
-      <c r="F160" s="11">
+      <c r="F160" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3872,7 +3873,7 @@
       <c r="E161" s="4">
         <v>17</v>
       </c>
-      <c r="F161" s="11">
+      <c r="F161" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3892,7 +3893,7 @@
       <c r="E162" s="4">
         <v>27.5</v>
       </c>
-      <c r="F162" s="11">
+      <c r="F162" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3912,7 +3913,7 @@
       <c r="E163" s="4">
         <v>20</v>
       </c>
-      <c r="F163" s="11">
+      <c r="F163" s="10">
         <v>4</v>
       </c>
     </row>
@@ -3932,7 +3933,7 @@
       <c r="E164" s="4">
         <v>35</v>
       </c>
-      <c r="F164" s="11">
+      <c r="F164" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3952,7 +3953,7 @@
       <c r="E165" s="4">
         <v>15.5</v>
       </c>
-      <c r="F165" s="11">
+      <c r="F165" s="10">
         <v>6</v>
       </c>
     </row>
@@ -3972,7 +3973,7 @@
       <c r="E166" s="4">
         <v>16</v>
       </c>
-      <c r="F166" s="11">
+      <c r="F166" s="10">
         <v>7</v>
       </c>
     </row>
@@ -3992,7 +3993,7 @@
       <c r="E167" s="4">
         <v>11</v>
       </c>
-      <c r="F167" s="11">
+      <c r="F167" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4012,7 +4013,7 @@
       <c r="E168" s="4">
         <v>24.5</v>
       </c>
-      <c r="F168" s="11">
+      <c r="F168" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4032,7 +4033,7 @@
       <c r="E169" s="4">
         <v>27.5</v>
       </c>
-      <c r="F169" s="11">
+      <c r="F169" s="10">
         <v>3</v>
       </c>
     </row>
@@ -4052,7 +4053,7 @@
       <c r="E170" s="4">
         <v>26</v>
       </c>
-      <c r="F170" s="11">
+      <c r="F170" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4072,7 +4073,7 @@
       <c r="E171" s="4">
         <v>26</v>
       </c>
-      <c r="F171" s="11">
+      <c r="F171" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4092,7 +4093,7 @@
       <c r="E172" s="4">
         <v>30</v>
       </c>
-      <c r="F172" s="11">
+      <c r="F172" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4112,7 +4113,7 @@
       <c r="E173" s="4">
         <v>41</v>
       </c>
-      <c r="F173" s="11">
+      <c r="F173" s="10">
         <v>8</v>
       </c>
     </row>
@@ -4132,7 +4133,7 @@
       <c r="E174" s="4">
         <v>12.5</v>
       </c>
-      <c r="F174" s="11">
+      <c r="F174" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4152,7 +4153,7 @@
       <c r="E175" s="4">
         <v>18</v>
       </c>
-      <c r="F175" s="11">
+      <c r="F175" s="10">
         <v>4</v>
       </c>
     </row>
@@ -4172,7 +4173,7 @@
       <c r="E176" s="4">
         <v>32</v>
       </c>
-      <c r="F176" s="11">
+      <c r="F176" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4192,7 +4193,7 @@
       <c r="E177" s="4">
         <v>26</v>
       </c>
-      <c r="F177" s="11">
+      <c r="F177" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4212,7 +4213,7 @@
       <c r="E178" s="4">
         <v>22.5</v>
       </c>
-      <c r="F178" s="11">
+      <c r="F178" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4232,7 +4233,7 @@
       <c r="E179" s="4">
         <v>19.5</v>
       </c>
-      <c r="F179" s="11">
+      <c r="F179" s="10">
         <v>4</v>
       </c>
     </row>
@@ -4252,7 +4253,7 @@
       <c r="E180" s="4">
         <v>33.5</v>
       </c>
-      <c r="F180" s="11">
+      <c r="F180" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4272,7 +4273,7 @@
       <c r="E181" s="4">
         <v>29</v>
       </c>
-      <c r="F181" s="11">
+      <c r="F181" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4292,7 +4293,7 @@
       <c r="E182" s="4">
         <v>37.5</v>
       </c>
-      <c r="F182" s="11">
+      <c r="F182" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4312,7 +4313,7 @@
       <c r="E183" s="4">
         <v>25</v>
       </c>
-      <c r="F183" s="11">
+      <c r="F183" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4332,7 +4333,7 @@
       <c r="E184" s="4">
         <v>25</v>
       </c>
-      <c r="F184" s="11">
+      <c r="F184" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4352,7 +4353,7 @@
       <c r="E185" s="4">
         <v>15</v>
       </c>
-      <c r="F185" s="11">
+      <c r="F185" s="10">
         <v>4</v>
       </c>
     </row>
@@ -4372,7 +4373,7 @@
       <c r="E186" s="4">
         <v>9</v>
       </c>
-      <c r="F186" s="11">
+      <c r="F186" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4392,7 +4393,7 @@
       <c r="E187" s="4">
         <v>19</v>
       </c>
-      <c r="F187" s="11">
+      <c r="F187" s="10">
         <v>4</v>
       </c>
     </row>
@@ -4412,7 +4413,7 @@
       <c r="E188" s="4">
         <v>19.5</v>
       </c>
-      <c r="F188" s="11">
+      <c r="F188" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4432,7 +4433,7 @@
       <c r="E189" s="4">
         <v>22</v>
       </c>
-      <c r="F189" s="11">
+      <c r="F189" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4452,7 +4453,7 @@
       <c r="E190" s="4">
         <v>36</v>
       </c>
-      <c r="F190" s="11">
+      <c r="F190" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4472,7 +4473,7 @@
       <c r="E191" s="4">
         <v>24</v>
       </c>
-      <c r="F191" s="11">
+      <c r="F191" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4492,7 +4493,7 @@
       <c r="E192" s="4">
         <v>29</v>
       </c>
-      <c r="F192" s="11">
+      <c r="F192" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4512,7 +4513,7 @@
       <c r="E193" s="4">
         <v>22.5</v>
       </c>
-      <c r="F193" s="11">
+      <c r="F193" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4532,7 +4533,7 @@
       <c r="E194" s="4">
         <v>27</v>
       </c>
-      <c r="F194" s="11">
+      <c r="F194" s="10">
         <v>3</v>
       </c>
     </row>
@@ -4552,7 +4553,7 @@
       <c r="E195" s="4">
         <v>16</v>
       </c>
-      <c r="F195" s="11">
+      <c r="F195" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4572,7 +4573,7 @@
       <c r="E196" s="4">
         <v>20</v>
       </c>
-      <c r="F196" s="11">
+      <c r="F196" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4592,7 +4593,7 @@
       <c r="E197" s="4">
         <v>27</v>
       </c>
-      <c r="F197" s="11">
+      <c r="F197" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4612,7 +4613,7 @@
       <c r="E198" s="4">
         <v>20</v>
       </c>
-      <c r="F198" s="11">
+      <c r="F198" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4632,7 +4633,7 @@
       <c r="E199" s="4">
         <v>29</v>
       </c>
-      <c r="F199" s="11">
+      <c r="F199" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4652,7 +4653,7 @@
       <c r="E200" s="4">
         <v>28</v>
       </c>
-      <c r="F200" s="11">
+      <c r="F200" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4672,7 +4673,7 @@
       <c r="E201" s="4">
         <v>18</v>
       </c>
-      <c r="F201" s="11">
+      <c r="F201" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4692,7 +4693,7 @@
       <c r="E202" s="4">
         <v>26</v>
       </c>
-      <c r="F202" s="11">
+      <c r="F202" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4712,7 +4713,7 @@
       <c r="E203" s="4">
         <v>29</v>
       </c>
-      <c r="F203" s="11">
+      <c r="F203" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4732,7 +4733,7 @@
       <c r="E204" s="4">
         <v>29</v>
       </c>
-      <c r="F204" s="11">
+      <c r="F204" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4752,7 +4753,7 @@
       <c r="E205" s="4">
         <v>33.5</v>
       </c>
-      <c r="F205" s="11">
+      <c r="F205" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4772,7 +4773,7 @@
       <c r="E206" s="4">
         <v>38.5</v>
       </c>
-      <c r="F206" s="11">
+      <c r="F206" s="10">
         <v>8</v>
       </c>
     </row>
@@ -4792,7 +4793,7 @@
       <c r="E207" s="4">
         <v>28</v>
       </c>
-      <c r="F207" s="11">
+      <c r="F207" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4812,7 +4813,7 @@
       <c r="E208" s="4">
         <v>30</v>
       </c>
-      <c r="F208" s="11">
+      <c r="F208" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4832,7 +4833,7 @@
       <c r="E209" s="4">
         <v>26.5</v>
       </c>
-      <c r="F209" s="11">
+      <c r="F209" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4852,7 +4853,7 @@
       <c r="E210" s="4">
         <v>30</v>
       </c>
-      <c r="F210" s="11">
+      <c r="F210" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4872,7 +4873,7 @@
       <c r="E211" s="4">
         <v>20</v>
       </c>
-      <c r="F211" s="11">
+      <c r="F211" s="10">
         <v>4</v>
       </c>
     </row>
@@ -4892,7 +4893,7 @@
       <c r="E212" s="4">
         <v>20</v>
       </c>
-      <c r="F212" s="11">
+      <c r="F212" s="10">
         <v>4</v>
       </c>
     </row>
@@ -4912,7 +4913,7 @@
       <c r="E213" s="4">
         <v>34.5</v>
       </c>
-      <c r="F213" s="11">
+      <c r="F213" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4932,7 +4933,7 @@
       <c r="E214" s="4">
         <v>30.5</v>
       </c>
-      <c r="F214" s="11">
+      <c r="F214" s="10">
         <v>8</v>
       </c>
     </row>
@@ -4952,7 +4953,7 @@
       <c r="E215" s="4">
         <v>25</v>
       </c>
-      <c r="F215" s="11">
+      <c r="F215" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4972,7 +4973,7 @@
       <c r="E216" s="4">
         <v>31</v>
       </c>
-      <c r="F216" s="11">
+      <c r="F216" s="10">
         <v>6</v>
       </c>
     </row>
@@ -4992,7 +4993,7 @@
       <c r="E217" s="4">
         <v>22.5</v>
       </c>
-      <c r="F217" s="11">
+      <c r="F217" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5012,7 +5013,7 @@
       <c r="E218" s="4">
         <v>24</v>
       </c>
-      <c r="F218" s="11">
+      <c r="F218" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5032,7 +5033,7 @@
       <c r="E219" s="4">
         <v>27.5</v>
       </c>
-      <c r="F219" s="11">
+      <c r="F219" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5052,7 +5053,7 @@
       <c r="E220" s="4">
         <v>9</v>
       </c>
-      <c r="F220" s="11">
+      <c r="F220" s="10">
         <v>3</v>
       </c>
     </row>
@@ -5072,7 +5073,7 @@
       <c r="E221" s="4">
         <v>26</v>
       </c>
-      <c r="F221" s="11">
+      <c r="F221" s="10">
         <v>3</v>
       </c>
     </row>
@@ -5092,7 +5093,7 @@
       <c r="E222" s="4">
         <v>26</v>
       </c>
-      <c r="F222" s="11">
+      <c r="F222" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5112,7 +5113,7 @@
       <c r="E223" s="4">
         <v>24</v>
       </c>
-      <c r="F223" s="11">
+      <c r="F223" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5132,7 +5133,7 @@
       <c r="E224" s="4">
         <v>21</v>
       </c>
-      <c r="F224" s="11">
+      <c r="F224" s="10">
         <v>4</v>
       </c>
     </row>
@@ -5152,7 +5153,7 @@
       <c r="E225" s="4">
         <v>17</v>
       </c>
-      <c r="F225" s="11">
+      <c r="F225" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5172,7 +5173,7 @@
       <c r="E226" s="4">
         <v>23.5</v>
       </c>
-      <c r="F226" s="11">
+      <c r="F226" s="10">
         <v>8</v>
       </c>
     </row>
@@ -5192,7 +5193,7 @@
       <c r="E227" s="4">
         <v>18.5</v>
       </c>
-      <c r="F227" s="11">
+      <c r="F227" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5212,7 +5213,7 @@
       <c r="E228" s="4">
         <v>11.5</v>
       </c>
-      <c r="F228" s="11">
+      <c r="F228" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5232,7 +5233,7 @@
       <c r="E229" s="4">
         <v>21.5</v>
       </c>
-      <c r="F229" s="11">
+      <c r="F229" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5252,7 +5253,7 @@
       <c r="E230" s="4">
         <v>21.5</v>
       </c>
-      <c r="F230" s="11">
+      <c r="F230" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5272,7 +5273,7 @@
       <c r="E231" s="4">
         <v>23.5</v>
       </c>
-      <c r="F231" s="11">
+      <c r="F231" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5292,7 +5293,7 @@
       <c r="E232" s="4">
         <v>17</v>
       </c>
-      <c r="F232" s="11">
+      <c r="F232" s="10">
         <v>4</v>
       </c>
     </row>
@@ -5312,7 +5313,7 @@
       <c r="E233" s="4">
         <v>25</v>
       </c>
-      <c r="F233" s="11">
+      <c r="F233" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5332,7 +5333,7 @@
       <c r="E234" s="4">
         <v>32</v>
       </c>
-      <c r="F234" s="11">
+      <c r="F234" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5352,7 +5353,7 @@
       <c r="E235" s="4">
         <v>32</v>
       </c>
-      <c r="F235" s="11">
+      <c r="F235" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5372,7 +5373,7 @@
       <c r="E236" s="4">
         <v>19.5</v>
       </c>
-      <c r="F236" s="11">
+      <c r="F236" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5392,7 +5393,7 @@
       <c r="E237" s="4">
         <v>28.5</v>
       </c>
-      <c r="F237" s="11">
+      <c r="F237" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5412,7 +5413,7 @@
       <c r="E238" s="4">
         <v>16.5</v>
       </c>
-      <c r="F238" s="11">
+      <c r="F238" s="10">
         <v>3</v>
       </c>
     </row>
@@ -5432,7 +5433,7 @@
       <c r="E239" s="4">
         <v>23</v>
       </c>
-      <c r="F239" s="11">
+      <c r="F239" s="10">
         <v>4</v>
       </c>
     </row>
@@ -5452,7 +5453,7 @@
       <c r="E240" s="4">
         <v>21</v>
       </c>
-      <c r="F240" s="11">
+      <c r="F240" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5472,7 +5473,7 @@
       <c r="E241" s="4">
         <v>22.5</v>
       </c>
-      <c r="F241" s="11">
+      <c r="F241" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5492,7 +5493,7 @@
       <c r="E242" s="4">
         <v>23</v>
       </c>
-      <c r="F242" s="11">
+      <c r="F242" s="10">
         <v>8</v>
       </c>
     </row>
@@ -5512,7 +5513,7 @@
       <c r="E243" s="4">
         <v>16</v>
       </c>
-      <c r="F243" s="11">
+      <c r="F243" s="10">
         <v>3</v>
       </c>
     </row>
@@ -5532,7 +5533,7 @@
       <c r="E244" s="4">
         <v>20.5</v>
       </c>
-      <c r="F244" s="11">
+      <c r="F244" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5552,7 +5553,7 @@
       <c r="E245" s="4">
         <v>26.5</v>
       </c>
-      <c r="F245" s="11">
+      <c r="F245" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5572,7 +5573,7 @@
       <c r="E246" s="4">
         <v>27.5</v>
       </c>
-      <c r="F246" s="11">
+      <c r="F246" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5592,7 +5593,7 @@
       <c r="E247" s="4">
         <v>33.5</v>
       </c>
-      <c r="F247" s="11">
+      <c r="F247" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5612,7 +5613,7 @@
       <c r="E248" s="4">
         <v>23.5</v>
       </c>
-      <c r="F248" s="11">
+      <c r="F248" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5632,7 +5633,7 @@
       <c r="E249" s="4">
         <v>29</v>
       </c>
-      <c r="F249" s="11">
+      <c r="F249" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5652,7 +5653,7 @@
       <c r="E250" s="4">
         <v>10</v>
       </c>
-      <c r="F250" s="11">
+      <c r="F250" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5672,7 +5673,7 @@
       <c r="E251" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F251" s="11">
+      <c r="F251" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5692,7 +5693,7 @@
       <c r="E252" s="4">
         <v>31.5</v>
       </c>
-      <c r="F252" s="11">
+      <c r="F252" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5712,7 +5713,7 @@
       <c r="E253" s="4">
         <v>17</v>
       </c>
-      <c r="F253" s="11">
+      <c r="F253" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5732,7 +5733,7 @@
       <c r="E254" s="4">
         <v>21.5</v>
       </c>
-      <c r="F254" s="11">
+      <c r="F254" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5752,7 +5753,7 @@
       <c r="E255" s="4">
         <v>34</v>
       </c>
-      <c r="F255" s="11">
+      <c r="F255" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5772,7 +5773,7 @@
       <c r="E256" s="4">
         <v>26.5</v>
       </c>
-      <c r="F256" s="11">
+      <c r="F256" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5792,7 +5793,7 @@
       <c r="E257" s="4">
         <v>48.5</v>
       </c>
-      <c r="F257" s="11">
+      <c r="F257" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5812,7 +5813,7 @@
       <c r="E258" s="4">
         <v>19.5</v>
       </c>
-      <c r="F258" s="11">
+      <c r="F258" s="10">
         <v>6</v>
       </c>
     </row>
@@ -5832,7 +5833,7 @@
       <c r="E259" s="4">
         <v>17</v>
       </c>
-      <c r="F259" s="11">
+      <c r="F259" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5852,7 +5853,7 @@
       <c r="E260" s="4">
         <v>38.5</v>
       </c>
-      <c r="F260" s="11">
+      <c r="F260" s="10">
         <v>4</v>
       </c>
     </row>
@@ -5872,7 +5873,7 @@
       <c r="E261" s="4">
         <v>40</v>
       </c>
-      <c r="F261" s="11">
+      <c r="F261" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5892,7 +5893,7 @@
       <c r="E262" s="4">
         <v>9</v>
       </c>
-      <c r="F262" s="11">
+      <c r="F262" s="10">
         <v>3</v>
       </c>
     </row>
@@ -5912,7 +5913,7 @@
       <c r="E263" s="4">
         <v>29</v>
       </c>
-      <c r="F263" s="11">
+      <c r="F263" s="10">
         <v>3</v>
       </c>
     </row>
@@ -5932,7 +5933,7 @@
       <c r="E264" s="4">
         <v>36</v>
       </c>
-      <c r="F264" s="11">
+      <c r="F264" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5952,7 +5953,7 @@
       <c r="E265" s="4">
         <v>29.5</v>
       </c>
-      <c r="F265" s="11">
+      <c r="F265" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5972,7 +5973,7 @@
       <c r="E266" s="4">
         <v>22.5</v>
       </c>
-      <c r="F266" s="11">
+      <c r="F266" s="10">
         <v>4</v>
       </c>
     </row>
@@ -5992,7 +5993,7 @@
       <c r="E267" s="4">
         <v>22</v>
       </c>
-      <c r="F267" s="11">
+      <c r="F267" s="10">
         <v>4</v>
       </c>
     </row>
@@ -6012,7 +6013,7 @@
       <c r="E268" s="4">
         <v>14.5</v>
       </c>
-      <c r="F268" s="11">
+      <c r="F268" s="10">
         <v>3</v>
       </c>
     </row>
@@ -6032,7 +6033,7 @@
       <c r="E269" s="4">
         <v>23.5</v>
       </c>
-      <c r="F269" s="11">
+      <c r="F269" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6052,7 +6053,7 @@
       <c r="E270" s="4">
         <v>14.5</v>
       </c>
-      <c r="F270" s="11">
+      <c r="F270" s="10">
         <v>4</v>
       </c>
     </row>
@@ -6072,7 +6073,7 @@
       <c r="E271" s="4">
         <v>11</v>
       </c>
-      <c r="F271" s="11">
+      <c r="F271" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6092,7 +6093,7 @@
       <c r="E272" s="4">
         <v>29.5</v>
       </c>
-      <c r="F272" s="11">
+      <c r="F272" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6112,7 +6113,7 @@
       <c r="E273" s="4">
         <v>16</v>
       </c>
-      <c r="F273" s="11">
+      <c r="F273" s="10">
         <v>2</v>
       </c>
     </row>
@@ -6132,7 +6133,7 @@
       <c r="E274" s="4">
         <v>24</v>
       </c>
-      <c r="F274" s="11">
+      <c r="F274" s="10">
         <v>4</v>
       </c>
     </row>
@@ -6152,7 +6153,7 @@
       <c r="E275" s="4">
         <v>32.5</v>
       </c>
-      <c r="F275" s="11">
+      <c r="F275" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6172,7 +6173,7 @@
       <c r="E276" s="4">
         <v>18.5</v>
       </c>
-      <c r="F276" s="11">
+      <c r="F276" s="10">
         <v>4</v>
       </c>
     </row>
@@ -6192,7 +6193,7 @@
       <c r="E277" s="4">
         <v>26</v>
       </c>
-      <c r="F277" s="11">
+      <c r="F277" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6212,7 +6213,7 @@
       <c r="E278" s="4">
         <v>24</v>
       </c>
-      <c r="F278" s="11">
+      <c r="F278" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6232,7 +6233,7 @@
       <c r="E279" s="4">
         <v>18</v>
       </c>
-      <c r="F279" s="11">
+      <c r="F279" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6252,7 +6253,7 @@
       <c r="E280" s="4">
         <v>15.5</v>
       </c>
-      <c r="F280" s="11">
+      <c r="F280" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6272,7 +6273,7 @@
       <c r="E281" s="4">
         <v>21</v>
       </c>
-      <c r="F281" s="11">
+      <c r="F281" s="10">
         <v>4</v>
       </c>
     </row>
@@ -6292,7 +6293,7 @@
       <c r="E282" s="4">
         <v>18.5</v>
       </c>
-      <c r="F282" s="11">
+      <c r="F282" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6312,7 +6313,7 @@
       <c r="E283" s="4">
         <v>23.5</v>
       </c>
-      <c r="F283" s="11">
+      <c r="F283" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6332,7 +6333,7 @@
       <c r="E284" s="4">
         <v>14.5</v>
       </c>
-      <c r="F284" s="11">
+      <c r="F284" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6352,7 +6353,7 @@
       <c r="E285" s="4">
         <v>15</v>
       </c>
-      <c r="F285" s="11">
+      <c r="F285" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6372,7 +6373,7 @@
       <c r="E286" s="4">
         <v>32.5</v>
       </c>
-      <c r="F286" s="11">
+      <c r="F286" s="10">
         <v>7</v>
       </c>
     </row>
@@ -6392,7 +6393,7 @@
       <c r="E287" s="4">
         <v>24.5</v>
       </c>
-      <c r="F287" s="11">
+      <c r="F287" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6412,7 +6413,7 @@
       <c r="E288" s="4">
         <v>14.5</v>
       </c>
-      <c r="F288" s="11">
+      <c r="F288" s="10">
         <v>4</v>
       </c>
     </row>
@@ -6432,7 +6433,7 @@
       <c r="E289" s="4">
         <v>27.5</v>
       </c>
-      <c r="F289" s="11">
+      <c r="F289" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6452,7 +6453,7 @@
       <c r="E290" s="4">
         <v>25</v>
       </c>
-      <c r="F290" s="11">
+      <c r="F290" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6472,7 +6473,7 @@
       <c r="E291" s="4">
         <v>23.5</v>
       </c>
-      <c r="F291" s="11">
+      <c r="F291" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6492,7 +6493,7 @@
       <c r="E292" s="4">
         <v>20</v>
       </c>
-      <c r="F292" s="11">
+      <c r="F292" s="10">
         <v>4</v>
       </c>
     </row>
@@ -6512,7 +6513,7 @@
       <c r="E293" s="4">
         <v>28</v>
       </c>
-      <c r="F293" s="11">
+      <c r="F293" s="10">
         <v>7</v>
       </c>
     </row>
@@ -6532,7 +6533,7 @@
       <c r="E294" s="4">
         <v>20</v>
       </c>
-      <c r="F294" s="11">
+      <c r="F294" s="10">
         <v>4</v>
       </c>
     </row>
@@ -6552,7 +6553,7 @@
       <c r="E295" s="4">
         <v>25</v>
       </c>
-      <c r="F295" s="11">
+      <c r="F295" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6572,7 +6573,7 @@
       <c r="E296" s="4">
         <v>29</v>
       </c>
-      <c r="F296" s="11">
+      <c r="F296" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6592,7 +6593,7 @@
       <c r="E297" s="4">
         <v>6.5</v>
       </c>
-      <c r="F297" s="11">
+      <c r="F297" s="10">
         <v>2</v>
       </c>
     </row>
@@ -6612,7 +6613,7 @@
       <c r="E298" s="4">
         <v>23</v>
       </c>
-      <c r="F298" s="11">
+      <c r="F298" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6632,7 +6633,7 @@
       <c r="E299" s="4">
         <v>13.5</v>
       </c>
-      <c r="F299" s="11">
+      <c r="F299" s="10">
         <v>2</v>
       </c>
     </row>
@@ -6652,7 +6653,7 @@
       <c r="E300" s="4">
         <v>23.5</v>
       </c>
-      <c r="F300" s="11">
+      <c r="F300" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6672,7 +6673,7 @@
       <c r="E301" s="4">
         <v>33.5</v>
       </c>
-      <c r="F301" s="11">
+      <c r="F301" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6692,7 +6693,7 @@
       <c r="E302" s="4">
         <v>12</v>
       </c>
-      <c r="F302" s="11">
+      <c r="F302" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6712,7 +6713,7 @@
       <c r="E303" s="4">
         <v>35.5</v>
       </c>
-      <c r="F303" s="11">
+      <c r="F303" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6732,7 +6733,7 @@
       <c r="E304" s="4">
         <v>39.5</v>
       </c>
-      <c r="F304" s="11">
+      <c r="F304" s="10">
         <v>7</v>
       </c>
     </row>
@@ -6752,7 +6753,7 @@
       <c r="E305" s="4">
         <v>23.5</v>
       </c>
-      <c r="F305" s="11">
+      <c r="F305" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6772,7 +6773,7 @@
       <c r="E306" s="4">
         <v>39</v>
       </c>
-      <c r="F306" s="11">
+      <c r="F306" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6792,7 +6793,7 @@
       <c r="E307" s="4">
         <v>21.8</v>
       </c>
-      <c r="F307" s="11">
+      <c r="F307" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6812,7 +6813,7 @@
       <c r="E308" s="4">
         <v>20.5</v>
       </c>
-      <c r="F308" s="11">
+      <c r="F308" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6832,7 +6833,7 @@
       <c r="E309" s="4">
         <v>21.5</v>
       </c>
-      <c r="F309" s="11">
+      <c r="F309" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6852,7 +6853,7 @@
       <c r="E310" s="4">
         <v>25.5</v>
       </c>
-      <c r="F310" s="11">
+      <c r="F310" s="10">
         <v>8</v>
       </c>
     </row>
@@ -6872,7 +6873,7 @@
       <c r="E311" s="4">
         <v>32</v>
       </c>
-      <c r="F311" s="11">
+      <c r="F311" s="10">
         <v>5</v>
       </c>
     </row>
@@ -6892,7 +6893,7 @@
       <c r="E312" s="4">
         <v>22.5</v>
       </c>
-      <c r="F312" s="11">
+      <c r="F312" s="10">
         <v>7</v>
       </c>
     </row>
@@ -6912,7 +6913,7 @@
       <c r="E313" s="4">
         <v>31.5</v>
       </c>
-      <c r="F313" s="11">
+      <c r="F313" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6932,7 +6933,7 @@
       <c r="E314" s="4">
         <v>28.5</v>
       </c>
-      <c r="F314" s="11">
+      <c r="F314" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6952,7 +6953,7 @@
       <c r="E315" s="4">
         <v>25</v>
       </c>
-      <c r="F315" s="11">
+      <c r="F315" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6972,7 +6973,7 @@
       <c r="E316" s="4">
         <v>23</v>
       </c>
-      <c r="F316" s="11">
+      <c r="F316" s="10">
         <v>6</v>
       </c>
     </row>
@@ -6992,7 +6993,7 @@
       <c r="E317" s="4">
         <v>30</v>
       </c>
-      <c r="F317" s="11">
+      <c r="F317" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7012,7 +7013,7 @@
       <c r="E318" s="4">
         <v>34.5</v>
       </c>
-      <c r="F318" s="11">
+      <c r="F318" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7032,7 +7033,7 @@
       <c r="E319" s="4">
         <v>29</v>
       </c>
-      <c r="F319" s="11">
+      <c r="F319" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7052,7 +7053,7 @@
       <c r="E320" s="4">
         <v>33.5</v>
       </c>
-      <c r="F320" s="11">
+      <c r="F320" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7072,7 +7073,7 @@
       <c r="E321" s="4">
         <v>22</v>
       </c>
-      <c r="F321" s="11">
+      <c r="F321" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7092,7 +7093,7 @@
       <c r="E322" s="4">
         <v>22.5</v>
       </c>
-      <c r="F322" s="11">
+      <c r="F322" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7112,7 +7113,7 @@
       <c r="E323" s="4">
         <v>37.5</v>
       </c>
-      <c r="F323" s="11">
+      <c r="F323" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7132,7 +7133,7 @@
       <c r="E324" s="4">
         <v>23</v>
       </c>
-      <c r="F324" s="11">
+      <c r="F324" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7152,7 +7153,7 @@
       <c r="E325" s="4">
         <v>35</v>
       </c>
-      <c r="F325" s="11">
+      <c r="F325" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7172,7 +7173,7 @@
       <c r="E326" s="4">
         <v>32.299999999999997</v>
       </c>
-      <c r="F326" s="11">
+      <c r="F326" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7192,7 +7193,7 @@
       <c r="E327" s="4">
         <v>21</v>
       </c>
-      <c r="F327" s="11">
+      <c r="F327" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7212,7 +7213,7 @@
       <c r="E328" s="4">
         <v>31</v>
       </c>
-      <c r="F328" s="11">
+      <c r="F328" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7232,7 +7233,7 @@
       <c r="E329" s="4">
         <v>27</v>
       </c>
-      <c r="F329" s="11">
+      <c r="F329" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7252,7 +7253,7 @@
       <c r="E330" s="4">
         <v>40</v>
       </c>
-      <c r="F330" s="11">
+      <c r="F330" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7272,7 +7273,7 @@
       <c r="E331" s="4">
         <v>39</v>
       </c>
-      <c r="F331" s="11">
+      <c r="F331" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7292,7 +7293,7 @@
       <c r="E332" s="4">
         <v>21</v>
       </c>
-      <c r="F332" s="11">
+      <c r="F332" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7312,7 +7313,7 @@
       <c r="E333" s="4">
         <v>18.5</v>
       </c>
-      <c r="F333" s="11">
+      <c r="F333" s="10">
         <v>4</v>
       </c>
     </row>
@@ -7332,7 +7333,7 @@
       <c r="E334" s="4">
         <v>24.3</v>
       </c>
-      <c r="F334" s="11">
+      <c r="F334" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7352,7 +7353,7 @@
       <c r="E335" s="4">
         <v>28</v>
       </c>
-      <c r="F335" s="11">
+      <c r="F335" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7372,7 +7373,7 @@
       <c r="E336" s="4">
         <v>24.5</v>
       </c>
-      <c r="F336" s="11">
+      <c r="F336" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7392,7 +7393,7 @@
       <c r="E337" s="4">
         <v>25</v>
       </c>
-      <c r="F337" s="11">
+      <c r="F337" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7412,7 +7413,7 @@
       <c r="E338" s="4">
         <v>38</v>
       </c>
-      <c r="F338" s="11">
+      <c r="F338" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7432,7 +7433,7 @@
       <c r="E339" s="4">
         <v>38</v>
       </c>
-      <c r="F339" s="11">
+      <c r="F339" s="10">
         <v>8</v>
       </c>
     </row>
@@ -7452,7 +7453,7 @@
       <c r="E340" s="4">
         <v>32</v>
       </c>
-      <c r="F340" s="11">
+      <c r="F340" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7472,7 +7473,7 @@
       <c r="E341" s="4">
         <v>29.5</v>
       </c>
-      <c r="F341" s="11">
+      <c r="F341" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7492,7 +7493,7 @@
       <c r="E342" s="4">
         <v>26</v>
       </c>
-      <c r="F342" s="11">
+      <c r="F342" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7512,7 +7513,7 @@
       <c r="E343" s="4">
         <v>32.5</v>
       </c>
-      <c r="F343" s="11">
+      <c r="F343" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7532,7 +7533,7 @@
       <c r="E344" s="4">
         <v>29.5</v>
       </c>
-      <c r="F344" s="11">
+      <c r="F344" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7552,7 +7553,7 @@
       <c r="E345" s="4">
         <v>18</v>
       </c>
-      <c r="F345" s="11">
+      <c r="F345" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7572,7 +7573,7 @@
       <c r="E346" s="4">
         <v>18.5</v>
       </c>
-      <c r="F346" s="11">
+      <c r="F346" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7592,7 +7593,7 @@
       <c r="E347" s="4">
         <v>42.5</v>
       </c>
-      <c r="F347" s="11">
+      <c r="F347" s="10">
         <v>8</v>
       </c>
     </row>
@@ -7612,7 +7613,7 @@
       <c r="E348" s="4">
         <v>26</v>
       </c>
-      <c r="F348" s="11">
+      <c r="F348" s="10">
         <v>4</v>
       </c>
     </row>
@@ -7632,7 +7633,7 @@
       <c r="E349" s="4">
         <v>22.5</v>
       </c>
-      <c r="F349" s="11">
+      <c r="F349" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7652,7 +7653,7 @@
       <c r="E350" s="4">
         <v>32.5</v>
       </c>
-      <c r="F350" s="11">
+      <c r="F350" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7672,7 +7673,7 @@
       <c r="E351" s="4">
         <v>31.5</v>
       </c>
-      <c r="F351" s="11">
+      <c r="F351" s="10">
         <v>8</v>
       </c>
     </row>
@@ -7692,7 +7693,7 @@
       <c r="E352" s="4">
         <v>15</v>
       </c>
-      <c r="F352" s="11">
+      <c r="F352" s="10">
         <v>4</v>
       </c>
     </row>
@@ -7712,7 +7713,7 @@
       <c r="E353" s="4">
         <v>35</v>
       </c>
-      <c r="F353" s="11">
+      <c r="F353" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7732,7 +7733,7 @@
       <c r="E354" s="4">
         <v>37</v>
       </c>
-      <c r="F354" s="11">
+      <c r="F354" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7752,7 +7753,7 @@
       <c r="E355" s="4">
         <v>22.5</v>
       </c>
-      <c r="F355" s="11">
+      <c r="F355" s="10">
         <v>4</v>
       </c>
     </row>
@@ -7772,7 +7773,7 @@
       <c r="E356" s="4">
         <v>33.5</v>
       </c>
-      <c r="F356" s="11">
+      <c r="F356" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7792,7 +7793,7 @@
       <c r="E357" s="4">
         <v>20</v>
       </c>
-      <c r="F357" s="11">
+      <c r="F357" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7812,7 +7813,7 @@
       <c r="E358" s="4">
         <v>19</v>
       </c>
-      <c r="F358" s="11">
+      <c r="F358" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7832,7 +7833,7 @@
       <c r="E359" s="4">
         <v>12.5</v>
       </c>
-      <c r="F359" s="11">
+      <c r="F359" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7852,7 +7853,7 @@
       <c r="E360" s="4">
         <v>30.5</v>
       </c>
-      <c r="F360" s="11">
+      <c r="F360" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7872,7 +7873,7 @@
       <c r="E361" s="4">
         <v>13.5</v>
       </c>
-      <c r="F361" s="11">
+      <c r="F361" s="10">
         <v>4</v>
       </c>
     </row>
@@ -7892,7 +7893,7 @@
       <c r="E362" s="4">
         <v>23</v>
       </c>
-      <c r="F362" s="11">
+      <c r="F362" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7912,7 +7913,7 @@
       <c r="E363" s="4">
         <v>17</v>
       </c>
-      <c r="F363" s="11">
+      <c r="F363" s="10">
         <v>3</v>
       </c>
     </row>
@@ -7932,7 +7933,7 @@
       <c r="E364" s="4">
         <v>26.5</v>
       </c>
-      <c r="F364" s="11">
+      <c r="F364" s="10">
         <v>8</v>
       </c>
     </row>
@@ -7952,7 +7953,7 @@
       <c r="E365" s="4">
         <v>23</v>
       </c>
-      <c r="F365" s="11">
+      <c r="F365" s="10">
         <v>6</v>
       </c>
     </row>
@@ -7972,7 +7973,7 @@
       <c r="E366" s="4">
         <v>30</v>
       </c>
-      <c r="F366" s="11">
+      <c r="F366" s="10">
         <v>5</v>
       </c>
     </row>
@@ -7992,7 +7993,7 @@
       <c r="E367" s="4">
         <v>24</v>
       </c>
-      <c r="F367" s="11">
+      <c r="F367" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8012,7 +8013,7 @@
       <c r="E368" s="4">
         <v>26</v>
       </c>
-      <c r="F368" s="11">
+      <c r="F368" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8032,7 +8033,7 @@
       <c r="E369" s="4">
         <v>22</v>
       </c>
-      <c r="F369" s="11">
+      <c r="F369" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8052,7 +8053,7 @@
       <c r="E370" s="4">
         <v>17</v>
       </c>
-      <c r="F370" s="11">
+      <c r="F370" s="10">
         <v>3</v>
       </c>
     </row>
@@ -8072,7 +8073,7 @@
       <c r="E371" s="4">
         <v>18</v>
       </c>
-      <c r="F371" s="11">
+      <c r="F371" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8092,7 +8093,7 @@
       <c r="E372" s="4">
         <v>11</v>
       </c>
-      <c r="F372" s="11">
+      <c r="F372" s="10">
         <v>2</v>
       </c>
     </row>
@@ -8112,7 +8113,7 @@
       <c r="E373" s="4">
         <v>13.5</v>
       </c>
-      <c r="F373" s="11">
+      <c r="F373" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8132,7 +8133,7 @@
       <c r="E374" s="4">
         <v>23</v>
       </c>
-      <c r="F374" s="11">
+      <c r="F374" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8152,7 +8153,7 @@
       <c r="E375" s="4">
         <v>24</v>
       </c>
-      <c r="F375" s="11">
+      <c r="F375" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8172,7 +8173,7 @@
       <c r="E376" s="4">
         <v>14.5</v>
       </c>
-      <c r="F376" s="11">
+      <c r="F376" s="10">
         <v>3</v>
       </c>
     </row>
@@ -8192,7 +8193,7 @@
       <c r="E377" s="4">
         <v>32.5</v>
       </c>
-      <c r="F377" s="11">
+      <c r="F377" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8212,7 +8213,7 @@
       <c r="E378" s="4">
         <v>28</v>
       </c>
-      <c r="F378" s="11">
+      <c r="F378" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8232,7 +8233,7 @@
       <c r="E379" s="4">
         <v>23</v>
       </c>
-      <c r="F379" s="11">
+      <c r="F379" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8252,7 +8253,7 @@
       <c r="E380" s="4">
         <v>22</v>
       </c>
-      <c r="F380" s="11">
+      <c r="F380" s="10">
         <v>7</v>
       </c>
     </row>
@@ -8272,7 +8273,7 @@
       <c r="E381" s="4">
         <v>25.5</v>
       </c>
-      <c r="F381" s="11">
+      <c r="F381" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8292,7 +8293,7 @@
       <c r="E382" s="4">
         <v>26</v>
       </c>
-      <c r="F382" s="11">
+      <c r="F382" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8312,7 +8313,7 @@
       <c r="E383" s="4">
         <v>25</v>
       </c>
-      <c r="F383" s="11">
+      <c r="F383" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8332,7 +8333,7 @@
       <c r="E384" s="4">
         <v>27.5</v>
       </c>
-      <c r="F384" s="11">
+      <c r="F384" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8352,7 +8353,7 @@
       <c r="E385" s="4">
         <v>30</v>
       </c>
-      <c r="F385" s="11">
+      <c r="F385" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8372,7 +8373,7 @@
       <c r="E386" s="4">
         <v>31.5</v>
       </c>
-      <c r="F386" s="11">
+      <c r="F386" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8392,7 +8393,7 @@
       <c r="E387" s="4">
         <v>21</v>
       </c>
-      <c r="F387" s="11">
+      <c r="F387" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8412,7 +8413,7 @@
       <c r="E388" s="4">
         <v>19</v>
       </c>
-      <c r="F388" s="11">
+      <c r="F388" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8432,7 +8433,7 @@
       <c r="E389" s="4">
         <v>23.5</v>
       </c>
-      <c r="F389" s="11">
+      <c r="F389" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8452,7 +8453,7 @@
       <c r="E390" s="4">
         <v>25</v>
       </c>
-      <c r="F390" s="11">
+      <c r="F390" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8472,7 +8473,7 @@
       <c r="E391" s="4">
         <v>24</v>
       </c>
-      <c r="F391" s="11">
+      <c r="F391" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8492,7 +8493,7 @@
       <c r="E392" s="4">
         <v>35</v>
       </c>
-      <c r="F392" s="11">
+      <c r="F392" s="10">
         <v>7</v>
       </c>
     </row>
@@ -8512,7 +8513,7 @@
       <c r="E393" s="4">
         <v>35</v>
       </c>
-      <c r="F393" s="11">
+      <c r="F393" s="10">
         <v>7</v>
       </c>
     </row>
@@ -8532,7 +8533,7 @@
       <c r="E394" s="4">
         <v>29</v>
       </c>
-      <c r="F394" s="11">
+      <c r="F394" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8552,7 +8553,7 @@
       <c r="E395" s="4">
         <v>43.5</v>
       </c>
-      <c r="F395" s="11">
+      <c r="F395" s="10">
         <v>7</v>
       </c>
     </row>
@@ -8572,7 +8573,7 @@
       <c r="E396" s="4">
         <v>28.5</v>
       </c>
-      <c r="F396" s="11">
+      <c r="F396" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8592,7 +8593,7 @@
       <c r="E397" s="4">
         <v>19.5</v>
       </c>
-      <c r="F397" s="11">
+      <c r="F397" s="10">
         <v>5</v>
       </c>
     </row>
@@ -8612,7 +8613,7 @@
       <c r="E398" s="4">
         <v>31</v>
       </c>
-      <c r="F398" s="11">
+      <c r="F398" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8632,7 +8633,7 @@
       <c r="E399" s="4">
         <v>20</v>
       </c>
-      <c r="F399" s="11">
+      <c r="F399" s="10">
         <v>6</v>
       </c>
     </row>
@@ -8652,7 +8653,7 @@
       <c r="E400" s="4">
         <v>15</v>
       </c>
-      <c r="F400" s="11">
+      <c r="F400" s="10">
         <v>4</v>
       </c>
     </row>
@@ -8672,103 +8673,103 @@
       <c r="E401" s="4">
         <v>18</v>
       </c>
-      <c r="F401" s="11">
+      <c r="F401" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G404" s="29"/>
-      <c r="H404" s="15"/>
-      <c r="I404" s="15"/>
-      <c r="J404" s="15"/>
-      <c r="K404" s="15"/>
-      <c r="L404" s="15"/>
+      <c r="G404" s="24"/>
+      <c r="H404" s="14"/>
+      <c r="I404" s="14"/>
+      <c r="J404" s="14"/>
+      <c r="K404" s="14"/>
+      <c r="L404" s="14"/>
     </row>
     <row r="405" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="9"/>
-      <c r="B405" s="9"/>
-      <c r="I405" s="16"/>
-      <c r="J405" s="16"/>
-      <c r="K405" s="16"/>
-      <c r="L405" s="16"/>
-      <c r="M405" s="16"/>
+      <c r="A405" s="27"/>
+      <c r="B405" s="27"/>
+      <c r="I405" s="15"/>
+      <c r="J405" s="15"/>
+      <c r="K405" s="15"/>
+      <c r="L405" s="15"/>
+      <c r="M405" s="15"/>
     </row>
     <row r="406" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G406" s="30"/>
-      <c r="H406" s="16"/>
-      <c r="I406" s="17"/>
-      <c r="J406" s="17"/>
-      <c r="K406" s="17"/>
-      <c r="L406" s="17"/>
-      <c r="M406" s="17"/>
-      <c r="N406" s="17"/>
-      <c r="O406" s="14"/>
-      <c r="P406" s="16"/>
-      <c r="R406" s="15"/>
-      <c r="S406" s="15"/>
+      <c r="G406" s="25"/>
+      <c r="H406" s="15"/>
+      <c r="I406" s="16"/>
+      <c r="J406" s="16"/>
+      <c r="K406" s="16"/>
+      <c r="L406" s="16"/>
+      <c r="M406" s="16"/>
+      <c r="N406" s="16"/>
+      <c r="O406" s="13"/>
+      <c r="P406" s="15"/>
+      <c r="R406" s="14"/>
+      <c r="S406" s="14"/>
     </row>
     <row r="407" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G407" s="31"/>
-      <c r="H407" s="18"/>
-      <c r="I407" s="18"/>
-      <c r="J407" s="18"/>
-      <c r="K407" s="18"/>
-      <c r="L407" s="18"/>
-      <c r="M407" s="18"/>
-      <c r="N407" s="16"/>
-      <c r="P407" s="16"/>
-      <c r="Q407" s="19"/>
+      <c r="G407" s="30"/>
+      <c r="H407" s="31"/>
+      <c r="I407" s="31"/>
+      <c r="J407" s="31"/>
+      <c r="K407" s="31"/>
+      <c r="L407" s="31"/>
+      <c r="M407" s="31"/>
+      <c r="N407" s="15"/>
+      <c r="P407" s="15"/>
+      <c r="Q407" s="17"/>
     </row>
     <row r="408" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q408" s="19"/>
+      <c r="Q408" s="17"/>
     </row>
     <row r="409" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G409" s="32"/>
-      <c r="H409" s="20"/>
-      <c r="Q409" s="19"/>
+      <c r="G409" s="26"/>
+      <c r="H409" s="18"/>
+      <c r="Q409" s="17"/>
     </row>
     <row r="410" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G410" s="33"/>
-      <c r="H410" s="21"/>
-      <c r="Q410" s="22"/>
-      <c r="R410" s="23"/>
+      <c r="G410" s="28"/>
+      <c r="H410" s="29"/>
+      <c r="Q410" s="19"/>
+      <c r="R410" s="20"/>
     </row>
     <row r="411" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G411" s="34"/>
-      <c r="H411" s="24"/>
-      <c r="I411" s="24"/>
-      <c r="J411" s="24"/>
-      <c r="K411" s="24"/>
-      <c r="L411" s="24"/>
-      <c r="M411" s="24"/>
-      <c r="Q411" s="19"/>
-      <c r="R411" s="23"/>
+      <c r="G411" s="32"/>
+      <c r="H411" s="33"/>
+      <c r="I411" s="33"/>
+      <c r="J411" s="33"/>
+      <c r="K411" s="33"/>
+      <c r="L411" s="33"/>
+      <c r="M411" s="33"/>
+      <c r="Q411" s="17"/>
+      <c r="R411" s="20"/>
     </row>
     <row r="412" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q412" s="19"/>
+      <c r="Q412" s="17"/>
     </row>
     <row r="413" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G413" s="31"/>
-      <c r="H413" s="18"/>
-      <c r="I413" s="18"/>
-      <c r="J413" s="18"/>
-      <c r="K413" s="18"/>
-      <c r="L413" s="18"/>
-      <c r="M413" s="18"/>
-      <c r="Q413" s="19"/>
+      <c r="G413" s="30"/>
+      <c r="H413" s="31"/>
+      <c r="I413" s="31"/>
+      <c r="J413" s="31"/>
+      <c r="K413" s="31"/>
+      <c r="L413" s="31"/>
+      <c r="M413" s="31"/>
+      <c r="Q413" s="17"/>
     </row>
     <row r="414" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q414" s="19"/>
+      <c r="Q414" s="17"/>
     </row>
     <row r="415" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G415" s="35"/>
-      <c r="H415" s="25"/>
-      <c r="N415" s="12"/>
-      <c r="Q415" s="19"/>
+      <c r="G415" s="34"/>
+      <c r="H415" s="35"/>
+      <c r="N415" s="11"/>
+      <c r="Q415" s="17"/>
     </row>
     <row r="416" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q416" s="19"/>
-      <c r="R416" s="23"/>
+      <c r="Q416" s="17"/>
+      <c r="R416" s="20"/>
     </row>
     <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="8"/>
@@ -8795,75 +8796,75 @@
       <c r="F419" s="8"/>
     </row>
     <row r="420" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I420" s="16"/>
-      <c r="J420" s="16"/>
-      <c r="K420" s="16"/>
-      <c r="L420" s="16"/>
-      <c r="M420" s="16"/>
+      <c r="I420" s="15"/>
+      <c r="J420" s="15"/>
+      <c r="K420" s="15"/>
+      <c r="L420" s="15"/>
+      <c r="M420" s="15"/>
     </row>
     <row r="421" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G421" s="30"/>
-      <c r="H421" s="16"/>
-      <c r="I421" s="26"/>
-      <c r="J421" s="26"/>
-      <c r="K421" s="26"/>
-      <c r="L421" s="26"/>
-      <c r="M421" s="26"/>
-      <c r="N421" s="26"/>
-      <c r="O421" s="15"/>
-      <c r="P421" s="16"/>
-      <c r="Q421" s="14"/>
-      <c r="S421" s="15"/>
+      <c r="G421" s="25"/>
+      <c r="H421" s="15"/>
+      <c r="I421" s="21"/>
+      <c r="J421" s="21"/>
+      <c r="K421" s="21"/>
+      <c r="L421" s="21"/>
+      <c r="M421" s="21"/>
+      <c r="N421" s="21"/>
+      <c r="O421" s="14"/>
+      <c r="P421" s="15"/>
+      <c r="Q421" s="13"/>
+      <c r="S421" s="14"/>
     </row>
     <row r="422" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G422" s="31"/>
-      <c r="H422" s="18"/>
-      <c r="I422" s="18"/>
-      <c r="J422" s="18"/>
-      <c r="K422" s="18"/>
-      <c r="L422" s="18"/>
-      <c r="M422" s="18"/>
-      <c r="N422" s="16"/>
-      <c r="P422" s="16"/>
-      <c r="Q422" s="19"/>
+      <c r="G422" s="30"/>
+      <c r="H422" s="31"/>
+      <c r="I422" s="31"/>
+      <c r="J422" s="31"/>
+      <c r="K422" s="31"/>
+      <c r="L422" s="31"/>
+      <c r="M422" s="31"/>
+      <c r="N422" s="15"/>
+      <c r="P422" s="15"/>
+      <c r="Q422" s="17"/>
     </row>
     <row r="423" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q423" s="19"/>
+      <c r="Q423" s="17"/>
     </row>
     <row r="424" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G424" s="32"/>
-      <c r="H424" s="20"/>
-      <c r="Q424" s="19"/>
+      <c r="G424" s="26"/>
+      <c r="H424" s="18"/>
+      <c r="Q424" s="17"/>
     </row>
     <row r="425" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G425" s="33"/>
-      <c r="H425" s="21"/>
-      <c r="Q425" s="22"/>
-      <c r="R425" s="23"/>
+      <c r="G425" s="28"/>
+      <c r="H425" s="29"/>
+      <c r="Q425" s="19"/>
+      <c r="R425" s="20"/>
     </row>
     <row r="426" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G426" s="34"/>
-      <c r="H426" s="24"/>
-      <c r="I426" s="24"/>
-      <c r="J426" s="24"/>
-      <c r="K426" s="24"/>
-      <c r="L426" s="24"/>
-      <c r="M426" s="24"/>
-      <c r="Q426" s="19"/>
-      <c r="R426" s="23"/>
+      <c r="G426" s="32"/>
+      <c r="H426" s="33"/>
+      <c r="I426" s="33"/>
+      <c r="J426" s="33"/>
+      <c r="K426" s="33"/>
+      <c r="L426" s="33"/>
+      <c r="M426" s="33"/>
+      <c r="Q426" s="17"/>
+      <c r="R426" s="20"/>
     </row>
     <row r="427" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q427" s="19"/>
+      <c r="Q427" s="17"/>
     </row>
     <row r="428" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G428" s="31"/>
-      <c r="H428" s="18"/>
-      <c r="I428" s="18"/>
-      <c r="J428" s="18"/>
-      <c r="K428" s="18"/>
-      <c r="L428" s="18"/>
-      <c r="M428" s="18"/>
-      <c r="Q428" s="19"/>
+      <c r="G428" s="30"/>
+      <c r="H428" s="31"/>
+      <c r="I428" s="31"/>
+      <c r="J428" s="31"/>
+      <c r="K428" s="31"/>
+      <c r="L428" s="31"/>
+      <c r="M428" s="31"/>
+      <c r="Q428" s="17"/>
     </row>
     <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="8"/>
@@ -8872,7 +8873,7 @@
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
-      <c r="Q429" s="19"/>
+      <c r="Q429" s="17"/>
     </row>
     <row r="430" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="8"/>
@@ -8881,10 +8882,10 @@
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
-      <c r="G430" s="35"/>
-      <c r="H430" s="25"/>
-      <c r="N430" s="12"/>
-      <c r="Q430" s="19"/>
+      <c r="G430" s="34"/>
+      <c r="H430" s="35"/>
+      <c r="N430" s="11"/>
+      <c r="Q430" s="17"/>
     </row>
     <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="8"/>
@@ -8893,48 +8894,43 @@
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
-      <c r="Q431" s="19"/>
-      <c r="R431" s="23"/>
+      <c r="Q431" s="17"/>
+      <c r="R431" s="20"/>
     </row>
     <row r="434" spans="7:18" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I434" s="17"/>
-      <c r="J434" s="17"/>
-      <c r="K434" s="17"/>
-      <c r="L434" s="17"/>
-      <c r="M434" s="17"/>
-      <c r="N434" s="26"/>
-      <c r="O434" s="15"/>
+      <c r="I434" s="16"/>
+      <c r="J434" s="16"/>
+      <c r="K434" s="16"/>
+      <c r="L434" s="16"/>
+      <c r="M434" s="16"/>
+      <c r="N434" s="21"/>
+      <c r="O434" s="14"/>
     </row>
     <row r="435" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G435" s="30"/>
-      <c r="H435" s="16"/>
-      <c r="I435" s="16"/>
-      <c r="J435" s="16"/>
-      <c r="K435" s="16"/>
-      <c r="L435" s="16"/>
-      <c r="M435" s="16"/>
-      <c r="N435" s="16"/>
-      <c r="Q435" s="14"/>
-      <c r="R435" s="15"/>
+      <c r="G435" s="25"/>
+      <c r="H435" s="15"/>
+      <c r="I435" s="15"/>
+      <c r="J435" s="15"/>
+      <c r="K435" s="15"/>
+      <c r="L435" s="15"/>
+      <c r="M435" s="15"/>
+      <c r="N435" s="15"/>
+      <c r="Q435" s="13"/>
+      <c r="R435" s="14"/>
     </row>
     <row r="436" spans="7:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G436" s="35"/>
-      <c r="H436" s="25"/>
-      <c r="I436" s="14"/>
-      <c r="J436" s="14"/>
-      <c r="K436" s="14"/>
-      <c r="L436" s="14"/>
-      <c r="M436" s="16"/>
-      <c r="N436" s="16"/>
-      <c r="O436" s="16"/>
+      <c r="G436" s="34"/>
+      <c r="H436" s="35"/>
+      <c r="I436" s="13"/>
+      <c r="J436" s="13"/>
+      <c r="K436" s="13"/>
+      <c r="L436" s="13"/>
+      <c r="M436" s="15"/>
+      <c r="N436" s="15"/>
+      <c r="O436" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A405:B405"/>
-    <mergeCell ref="G410:H410"/>
-    <mergeCell ref="G407:M407"/>
-    <mergeCell ref="G411:M411"/>
-    <mergeCell ref="G413:M413"/>
     <mergeCell ref="G436:H436"/>
     <mergeCell ref="G415:H415"/>
     <mergeCell ref="G422:M422"/>
@@ -8942,6 +8938,11 @@
     <mergeCell ref="G426:M426"/>
     <mergeCell ref="G428:M428"/>
     <mergeCell ref="G430:H430"/>
+    <mergeCell ref="A405:B405"/>
+    <mergeCell ref="G410:H410"/>
+    <mergeCell ref="G407:M407"/>
+    <mergeCell ref="G411:M411"/>
+    <mergeCell ref="G413:M413"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
